--- a/AAII_Financials/Quarterly/IWBB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IWBB_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78FD05F7-6DE3-4B95-A6D7-EA46AF929B40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="IWBB" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>IWBB</t>
   </si>
@@ -304,9 +303,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -348,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,66 +654,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446DB3A3-9ED4-43D0-938B-2F3AEF24AAAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="H7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -768,74 +752,119 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -847,13 +876,18 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>200</v>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -868,16 +902,31 @@
         <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
+        <v>100</v>
+      </c>
+      <c r="M12" s="3">
+        <v>100</v>
+      </c>
+      <c r="N12" s="3">
+        <v>100</v>
+      </c>
+      <c r="O12" s="3">
+        <v>100</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -905,8 +954,23 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -934,8 +998,23 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -963,8 +1042,23 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -973,37 +1067,57 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
+        <v>200</v>
+      </c>
+      <c r="H17" s="3">
+        <v>300</v>
+      </c>
+      <c r="I17" s="3">
         <v>800</v>
-      </c>
-      <c r="E17" s="3">
-        <v>200</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
       </c>
       <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
+        <v>300</v>
+      </c>
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
+        <v>200</v>
+      </c>
+      <c r="P17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1011,28 +1125,43 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>-800</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
       </c>
       <c r="K18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1044,8 +1173,13 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1059,22 +1193,37 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1082,28 +1231,43 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="F21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
-        <v>-100</v>
-      </c>
       <c r="I21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+        <v>-800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1131,37 +1295,67 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1189,8 +1383,23 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1218,66 +1427,111 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1305,8 +1559,23 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1334,8 +1603,23 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1363,8 +1647,23 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1392,8 +1691,23 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1407,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1421,37 +1735,67 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1479,71 +1823,116 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="H38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1555,8 +1944,13 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1568,37 +1962,57 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E41" s="3">
         <v>900</v>
       </c>
       <c r="F41" s="3">
+        <v>600</v>
+      </c>
+      <c r="G41" s="3">
+        <v>500</v>
+      </c>
+      <c r="H41" s="3">
+        <v>500</v>
+      </c>
+      <c r="I41" s="3">
+        <v>700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1626,13 +2040,28 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -1652,11 +2081,26 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1684,66 +2128,111 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
         <v>800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
+        <v>700</v>
+      </c>
+      <c r="H45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="I45" s="3">
+        <v>800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>800</v>
+      </c>
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I46" s="3">
         <v>1500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="J46" s="3">
         <v>1800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="K46" s="3">
         <v>1900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="L46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="M46" s="3">
         <v>1100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="N46" s="3">
         <v>1100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1771,8 +2260,23 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1797,11 +2301,26 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1829,8 +2348,23 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1858,8 +2392,23 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1887,16 +2436,31 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>300</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>4</v>
@@ -1910,14 +2474,29 @@
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1945,37 +2524,67 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E54" s="3">
         <v>1800</v>
       </c>
       <c r="F54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K54" s="3">
         <v>1900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="L54" s="3">
         <v>1000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="M54" s="3">
         <v>1100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="N54" s="3">
         <v>1100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="O54" s="3">
         <v>100</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1987,8 +2596,13 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2000,8 +2614,13 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2029,95 +2648,155 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>900</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F59" s="3">
         <v>200</v>
       </c>
       <c r="G59" s="3">
+        <v>200</v>
+      </c>
+      <c r="H59" s="3">
+        <v>200</v>
+      </c>
+      <c r="I59" s="3">
+        <v>100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>200</v>
+      </c>
+      <c r="K59" s="3">
+        <v>200</v>
+      </c>
+      <c r="L59" s="3">
         <v>1600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="N59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="P59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="E60" s="3">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="F60" s="3">
         <v>200</v>
       </c>
       <c r="G60" s="3">
+        <v>200</v>
+      </c>
+      <c r="H60" s="3">
+        <v>200</v>
+      </c>
+      <c r="I60" s="3">
+        <v>100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>200</v>
+      </c>
+      <c r="K60" s="3">
+        <v>200</v>
+      </c>
+      <c r="L60" s="3">
         <v>1600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="M60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="N60" s="3">
         <v>1500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="P60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2145,8 +2824,23 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2174,8 +2868,23 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2203,8 +2912,23 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2232,8 +2956,23 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2261,37 +3000,67 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E66" s="3">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="F66" s="3">
         <v>200</v>
       </c>
       <c r="G66" s="3">
+        <v>200</v>
+      </c>
+      <c r="H66" s="3">
+        <v>200</v>
+      </c>
+      <c r="I66" s="3">
+        <v>100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>200</v>
+      </c>
+      <c r="K66" s="3">
+        <v>200</v>
+      </c>
+      <c r="L66" s="3">
         <v>1600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="M66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="N66" s="3">
         <v>1500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="O66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="P66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2303,8 +3072,13 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2332,8 +3106,23 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2361,8 +3150,23 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2390,8 +3194,23 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2419,37 +3238,67 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I72" s="3">
         <v>-1300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="J72" s="3">
         <v>-1100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="K72" s="3">
         <v>-1000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="L72" s="3">
         <v>-800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="M72" s="3">
         <v>-600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="N72" s="3">
         <v>-500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="O72" s="3">
         <v>-400</v>
       </c>
-      <c r="K72" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2477,8 +3326,23 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2506,8 +3370,23 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2535,37 +3414,67 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>600</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I76" s="3">
         <v>1400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="J76" s="3">
         <v>1600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="K76" s="3">
         <v>1700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="L76" s="3">
         <v>-600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="M76" s="3">
         <v>-300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="N76" s="3">
         <v>-400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="O76" s="3">
         <v>-300</v>
       </c>
-      <c r="K76" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2593,71 +3502,116 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="H80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2669,8 +3623,13 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2692,14 +3651,29 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2727,8 +3701,23 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2756,8 +3745,23 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2785,8 +3789,23 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2814,8 +3833,23 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2843,37 +3877,67 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-1500</v>
       </c>
-      <c r="E89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2885,28 +3949,33 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
@@ -2914,8 +3983,23 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2943,8 +4027,23 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2972,37 +4071,67 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3014,8 +4143,13 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3043,8 +4177,23 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3072,8 +4221,23 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3101,8 +4265,23 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3130,37 +4309,67 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>800</v>
+      </c>
+      <c r="F100" s="3">
+        <v>300</v>
+      </c>
+      <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>2200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>2100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3182,39 +4391,69 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>300</v>
+      </c>
+      <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I102" s="3">
         <v>700</v>
       </c>
-      <c r="E102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="J102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K102" s="3">
         <v>1000</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IWBB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IWBB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>IWBB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,78 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -767,21 +771,24 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
@@ -795,8 +802,8 @@
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -804,23 +811,26 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,8 +849,8 @@
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -848,23 +858,26 @@
       <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,13 +894,14 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>100</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -902,10 +916,10 @@
         <v>100</v>
       </c>
       <c r="I12" s="3">
+        <v>100</v>
+      </c>
+      <c r="J12" s="3">
         <v>200</v>
-      </c>
-      <c r="J12" s="3">
-        <v>100</v>
       </c>
       <c r="K12" s="3">
         <v>100</v>
@@ -922,11 +936,14 @@
       <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,52 +1098,56 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
       </c>
       <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>100</v>
-      </c>
-      <c r="N17" s="3">
-        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
       </c>
       <c r="P17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1155,46 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
-        <v>-100</v>
-      </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
       </c>
       <c r="K18" s="3">
         <v>-200</v>
       </c>
       <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
-        <v>-100</v>
-      </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
       <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,7 +1221,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1208,11 +1242,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1222,8 +1256,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,43 +1268,46 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
-        <v>-100</v>
-      </c>
       <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-800</v>
       </c>
-      <c r="J21" s="3">
-        <v>-100</v>
-      </c>
       <c r="K21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
-        <v>-100</v>
-      </c>
       <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
+      <c r="O21" s="3">
+        <v>-100</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,52 +1350,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
-        <v>-100</v>
-      </c>
       <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
-        <v>-100</v>
-      </c>
       <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
-        <v>-100</v>
-      </c>
       <c r="N23" s="3">
         <v>-100</v>
       </c>
       <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,41 +1491,44 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
-        <v>-100</v>
-      </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
       <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
-        <v>-100</v>
-      </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
@@ -1486,41 +1538,44 @@
       <c r="P26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
-        <v>-100</v>
-      </c>
       <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
       <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
-        <v>-100</v>
-      </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
@@ -1530,8 +1585,11 @@
       <c r="P27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,7 +1785,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1736,10 +1806,10 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -1750,41 +1820,44 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
-        <v>-100</v>
-      </c>
       <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
       <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
-        <v>-100</v>
-      </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
@@ -1794,8 +1867,11 @@
       <c r="P33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,41 +1914,44 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
-        <v>-100</v>
-      </c>
       <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
       <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
-        <v>-100</v>
-      </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
@@ -1882,57 +1961,63 @@
       <c r="P35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
-      </c>
-      <c r="G41" s="3">
-        <v>500</v>
       </c>
       <c r="H41" s="3">
         <v>500</v>
       </c>
       <c r="I41" s="3">
+        <v>500</v>
+      </c>
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,17 +2145,20 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>400</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
@@ -2096,11 +2189,14 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2152,16 +2251,16 @@
         <v>400</v>
       </c>
       <c r="E45" s="3">
+        <v>400</v>
+      </c>
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
-      </c>
-      <c r="H45" s="3">
-        <v>800</v>
       </c>
       <c r="I45" s="3">
         <v>800</v>
@@ -2170,10 +2269,10 @@
         <v>800</v>
       </c>
       <c r="K45" s="3">
+        <v>800</v>
+      </c>
+      <c r="L45" s="3">
         <v>900</v>
-      </c>
-      <c r="L45" s="3">
-        <v>1000</v>
       </c>
       <c r="M45" s="3">
         <v>1000</v>
@@ -2182,57 +2281,63 @@
         <v>1000</v>
       </c>
       <c r="O45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
         <v>1100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1000</v>
-      </c>
-      <c r="M46" s="3">
-        <v>1100</v>
       </c>
       <c r="N46" s="3">
         <v>1100</v>
       </c>
       <c r="O46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,13 +2380,16 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -2316,11 +2424,14 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2462,8 +2582,8 @@
       <c r="E52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="F52" s="3">
+        <v>300</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
@@ -2489,14 +2609,17 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1000</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1100</v>
       </c>
       <c r="N54" s="3">
         <v>1100</v>
       </c>
       <c r="O54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P54" s="3">
         <v>100</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,8 +2794,11 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2674,8 +2808,8 @@
       <c r="E58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
+      <c r="F58" s="3">
+        <v>900</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
@@ -2689,8 +2823,8 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2707,8 +2841,11 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2716,10 +2853,10 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
+        <v>200</v>
+      </c>
+      <c r="F59" s="3">
         <v>300</v>
-      </c>
-      <c r="F59" s="3">
-        <v>200</v>
       </c>
       <c r="G59" s="3">
         <v>200</v>
@@ -2728,31 +2865,34 @@
         <v>200</v>
       </c>
       <c r="I59" s="3">
+        <v>200</v>
+      </c>
+      <c r="J59" s="3">
         <v>100</v>
-      </c>
-      <c r="J59" s="3">
-        <v>200</v>
       </c>
       <c r="K59" s="3">
         <v>200</v>
       </c>
       <c r="L59" s="3">
+        <v>200</v>
+      </c>
+      <c r="M59" s="3">
         <v>1600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2760,10 +2900,10 @@
         <v>1100</v>
       </c>
       <c r="E60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F60" s="3">
         <v>1200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>200</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
@@ -2772,31 +2912,34 @@
         <v>200</v>
       </c>
       <c r="I60" s="3">
+        <v>200</v>
+      </c>
+      <c r="J60" s="3">
         <v>100</v>
-      </c>
-      <c r="J60" s="3">
-        <v>200</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
       </c>
       <c r="L60" s="3">
+        <v>200</v>
+      </c>
+      <c r="M60" s="3">
         <v>1600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +2982,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,8 +3170,11 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3024,10 +3182,10 @@
         <v>1000</v>
       </c>
       <c r="E66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F66" s="3">
         <v>1200</v>
-      </c>
-      <c r="F66" s="3">
-        <v>200</v>
       </c>
       <c r="G66" s="3">
         <v>200</v>
@@ -3036,31 +3194,34 @@
         <v>200</v>
       </c>
       <c r="I66" s="3">
+        <v>200</v>
+      </c>
+      <c r="J66" s="3">
         <v>100</v>
-      </c>
-      <c r="J66" s="3">
-        <v>200</v>
       </c>
       <c r="K66" s="3">
         <v>200</v>
       </c>
       <c r="L66" s="3">
+        <v>200</v>
+      </c>
+      <c r="M66" s="3">
         <v>1600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-400</v>
       </c>
-      <c r="P72" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>200</v>
+      </c>
+      <c r="E76" s="3">
         <v>400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-300</v>
       </c>
-      <c r="P76" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,90 +3706,96 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
-        <v>-100</v>
-      </c>
       <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
       <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
-        <v>-100</v>
-      </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
@@ -3610,8 +3805,11 @@
       <c r="P81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3666,14 +3865,17 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,13 +4106,16 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E89" s="3">
         <v>-200</v>
@@ -3913,31 +4130,34 @@
         <v>-200</v>
       </c>
       <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-1500</v>
       </c>
-      <c r="J89" s="3">
-        <v>-100</v>
-      </c>
       <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-1100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
-        <v>-100</v>
-      </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,13 +4174,14 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3968,8 +4189,8 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -3986,20 +4207,23 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,28 +4313,31 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -4124,14 +4354,17 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4567,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>2200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>2100</v>
-      </c>
-      <c r="L100" s="3">
-        <v>200</v>
       </c>
       <c r="M100" s="3">
         <v>200</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4406,44 +4655,47 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>-100</v>
-      </c>
       <c r="H102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>700</v>
       </c>
-      <c r="J102" s="3">
-        <v>-100</v>
-      </c>
       <c r="K102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L102" s="3">
         <v>1000</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -4454,6 +4706,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IWBB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IWBB_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -774,24 +778,27 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -805,8 +812,8 @@
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -814,31 +821,34 @@
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
@@ -852,8 +862,8 @@
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -861,23 +871,26 @@
       <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>100</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -919,10 +933,10 @@
         <v>100</v>
       </c>
       <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
         <v>200</v>
-      </c>
-      <c r="K12" s="3">
-        <v>100</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
@@ -939,11 +953,14 @@
       <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>100</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,8 +1125,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1108,46 +1135,49 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
-      </c>
-      <c r="K17" s="3">
-        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
       </c>
       <c r="M17" s="3">
+        <v>200</v>
+      </c>
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>100</v>
-      </c>
-      <c r="O17" s="3">
-        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
       </c>
       <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,46 +1185,49 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
-        <v>-100</v>
-      </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-200</v>
       </c>
       <c r="L18" s="3">
         <v>-200</v>
       </c>
       <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
-        <v>-100</v>
-      </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,11 +1255,11 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1245,11 +1279,11 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1259,8 +1293,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1268,46 +1305,49 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
-        <v>-100</v>
-      </c>
       <c r="H21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="K21" s="3">
-        <v>-100</v>
-      </c>
       <c r="L21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
-        <v>-100</v>
-      </c>
       <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
+      <c r="P21" s="3">
+        <v>-100</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,55 +1393,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
-        <v>-100</v>
-      </c>
       <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
-        <v>-100</v>
-      </c>
       <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
-        <v>-100</v>
-      </c>
       <c r="O23" s="3">
         <v>-100</v>
       </c>
       <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,44 +1543,47 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
-        <v>-100</v>
-      </c>
       <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
-        <v>-100</v>
-      </c>
       <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
-        <v>-100</v>
-      </c>
       <c r="O26" s="3">
         <v>-100</v>
       </c>
@@ -1541,44 +1593,47 @@
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
-        <v>-100</v>
-      </c>
       <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
-        <v>-100</v>
-      </c>
       <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
-        <v>-100</v>
-      </c>
       <c r="O27" s="3">
         <v>-100</v>
       </c>
@@ -1588,8 +1643,11 @@
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1785,11 +1855,11 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1809,10 +1879,10 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -1823,44 +1893,47 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
-        <v>-100</v>
-      </c>
       <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
-        <v>-100</v>
-      </c>
       <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
-        <v>-100</v>
-      </c>
       <c r="O33" s="3">
         <v>-100</v>
       </c>
@@ -1870,8 +1943,11 @@
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,44 +1993,47 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
-        <v>-100</v>
-      </c>
       <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
-        <v>-100</v>
-      </c>
       <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
-        <v>-100</v>
-      </c>
       <c r="O35" s="3">
         <v>-100</v>
       </c>
@@ -1964,60 +2043,66 @@
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
-      </c>
-      <c r="H41" s="3">
-        <v>500</v>
       </c>
       <c r="I41" s="3">
         <v>500</v>
       </c>
       <c r="J41" s="3">
+        <v>500</v>
+      </c>
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1000</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2157,11 +2250,11 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>400</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
@@ -2192,11 +2285,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2254,16 +2353,16 @@
         <v>400</v>
       </c>
       <c r="F45" s="3">
+        <v>400</v>
+      </c>
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
-      </c>
-      <c r="I45" s="3">
-        <v>800</v>
       </c>
       <c r="J45" s="3">
         <v>800</v>
@@ -2272,10 +2371,10 @@
         <v>800</v>
       </c>
       <c r="L45" s="3">
+        <v>800</v>
+      </c>
+      <c r="M45" s="3">
         <v>900</v>
-      </c>
-      <c r="M45" s="3">
-        <v>1000</v>
       </c>
       <c r="N45" s="3">
         <v>1000</v>
@@ -2284,60 +2383,66 @@
         <v>1000</v>
       </c>
       <c r="P45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
         <v>700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1000</v>
-      </c>
-      <c r="N46" s="3">
-        <v>1100</v>
       </c>
       <c r="O46" s="3">
         <v>1100</v>
       </c>
       <c r="P46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2488,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2392,7 +2500,7 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2427,11 +2535,14 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2585,8 +2705,8 @@
       <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="G52" s="3">
+        <v>300</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
@@ -2612,14 +2732,17 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1000</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1100</v>
       </c>
       <c r="O54" s="3">
         <v>1100</v>
       </c>
       <c r="P54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q54" s="3">
         <v>100</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2880,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2797,8 +2928,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2811,8 +2945,8 @@
       <c r="F58" s="3">
         <v>900</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
+      <c r="G58" s="3">
+        <v>900</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
@@ -2826,8 +2960,8 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2844,8 +2978,11 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2856,10 +2993,10 @@
         <v>200</v>
       </c>
       <c r="F59" s="3">
+        <v>200</v>
+      </c>
+      <c r="G59" s="3">
         <v>300</v>
-      </c>
-      <c r="G59" s="3">
-        <v>200</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
@@ -2868,31 +3005,34 @@
         <v>200</v>
       </c>
       <c r="J59" s="3">
+        <v>200</v>
+      </c>
+      <c r="K59" s="3">
         <v>100</v>
-      </c>
-      <c r="K59" s="3">
-        <v>200</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
       </c>
       <c r="M59" s="3">
+        <v>200</v>
+      </c>
+      <c r="N59" s="3">
         <v>1600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2903,10 +3043,10 @@
         <v>1100</v>
       </c>
       <c r="F60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G60" s="3">
         <v>1200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>200</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
@@ -2915,31 +3055,34 @@
         <v>200</v>
       </c>
       <c r="J60" s="3">
+        <v>200</v>
+      </c>
+      <c r="K60" s="3">
         <v>100</v>
-      </c>
-      <c r="K60" s="3">
-        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
       </c>
       <c r="M60" s="3">
+        <v>200</v>
+      </c>
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,22 +3328,25 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E66" s="3">
         <v>1000</v>
       </c>
       <c r="F66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G66" s="3">
         <v>1200</v>
-      </c>
-      <c r="G66" s="3">
-        <v>200</v>
       </c>
       <c r="H66" s="3">
         <v>200</v>
@@ -3197,31 +3355,34 @@
         <v>200</v>
       </c>
       <c r="J66" s="3">
+        <v>200</v>
+      </c>
+      <c r="K66" s="3">
         <v>100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>200</v>
       </c>
       <c r="L66" s="3">
         <v>200</v>
       </c>
       <c r="M66" s="3">
+        <v>200</v>
+      </c>
+      <c r="N66" s="3">
         <v>1600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-400</v>
       </c>
-      <c r="Q72" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
         <v>200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-300</v>
       </c>
-      <c r="Q76" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,96 +3898,102 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
-        <v>-100</v>
-      </c>
       <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
-        <v>-100</v>
-      </c>
       <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
-        <v>-100</v>
-      </c>
       <c r="O81" s="3">
         <v>-100</v>
       </c>
@@ -3808,8 +4003,11 @@
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3868,14 +4067,17 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4323,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4118,7 +4335,7 @@
         <v>-300</v>
       </c>
       <c r="E89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F89" s="3">
         <v>-200</v>
@@ -4133,31 +4350,34 @@
         <v>-200</v>
       </c>
       <c r="J89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1500</v>
       </c>
-      <c r="K89" s="3">
-        <v>-100</v>
-      </c>
       <c r="L89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-1100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
-        <v>-100</v>
-      </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,16 +4395,17 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -4192,8 +4413,8 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
@@ -4210,20 +4431,23 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,31 +4543,34 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -4357,14 +4587,17 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +4813,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4579,46 +4825,49 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>2200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>2100</v>
-      </c>
-      <c r="M100" s="3">
-        <v>200</v>
       </c>
       <c r="N100" s="3">
         <v>200</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4658,47 +4907,50 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
+      <c r="P101" s="3">
+        <v>0</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>-100</v>
-      </c>
       <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>700</v>
       </c>
-      <c r="K102" s="3">
-        <v>-100</v>
-      </c>
       <c r="L102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M102" s="3">
         <v>1000</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -4709,6 +4961,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IWBB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IWBB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>IWBB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,89 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,16 +788,22 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -800,11 +813,11 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
@@ -815,32 +828,38 @@
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
       </c>
       <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,11 +869,11 @@
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
@@ -865,32 +884,38 @@
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>100</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,13 +934,15 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>100</v>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -936,13 +963,13 @@
         <v>100</v>
       </c>
       <c r="K12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
       </c>
       <c r="M12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N12" s="3">
         <v>100</v>
@@ -956,11 +983,17 @@
       <c r="Q12" s="3">
         <v>100</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R12" s="3">
+        <v>100</v>
+      </c>
+      <c r="S12" s="3">
+        <v>100</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1042,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1098,14 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,8 +1177,10 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1138,46 +1191,52 @@
         <v>200</v>
       </c>
       <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
+        <v>200</v>
+      </c>
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1188,46 +1247,52 @@
         <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1311,10 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1255,17 +1322,17 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1282,22 +1349,28 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1308,46 +1381,52 @@
         <v>-100</v>
       </c>
       <c r="F21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-800</v>
       </c>
-      <c r="L21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,58 +1475,70 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E23" s="3">
         <v>-200</v>
       </c>
       <c r="F23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1587,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,58 +1643,70 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E26" s="3">
         <v>-200</v>
       </c>
       <c r="F26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1608,46 +1717,52 @@
         <v>-100</v>
       </c>
       <c r="F27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1979,14 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1855,17 +1994,17 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1882,13 +2021,13 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -1896,8 +2035,14 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1908,46 +2053,52 @@
         <v>-100</v>
       </c>
       <c r="F33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,8 +2147,14 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2008,101 +2165,113 @@
         <v>-100</v>
       </c>
       <c r="F35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2312,66 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1000</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2420,14 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2250,17 +2435,17 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
@@ -2288,11 +2473,17 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,108 +2532,126 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>400</v>
       </c>
       <c r="G45" s="3">
+        <v>400</v>
+      </c>
+      <c r="H45" s="3">
+        <v>400</v>
+      </c>
+      <c r="I45" s="3">
         <v>500</v>
-      </c>
-      <c r="H45" s="3">
-        <v>800</v>
-      </c>
-      <c r="I45" s="3">
-        <v>700</v>
       </c>
       <c r="J45" s="3">
         <v>800</v>
       </c>
       <c r="K45" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L45" s="3">
         <v>800</v>
       </c>
       <c r="M45" s="3">
+        <v>800</v>
+      </c>
+      <c r="N45" s="3">
+        <v>800</v>
+      </c>
+      <c r="O45" s="3">
         <v>900</v>
-      </c>
-      <c r="N45" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O45" s="3">
-        <v>1000</v>
       </c>
       <c r="P45" s="3">
         <v>1000</v>
       </c>
       <c r="Q45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>300</v>
+      </c>
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1400</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1100</v>
       </c>
       <c r="J46" s="3">
         <v>1300</v>
       </c>
       <c r="K46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M46" s="3">
         <v>1500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>100</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,8 +2700,14 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2503,10 +2718,10 @@
         <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -2538,11 +2753,17 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2812,14 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2924,14 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2708,11 +2947,11 @@
       <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="H52" s="3">
+        <v>300</v>
+      </c>
+      <c r="I52" s="3">
+        <v>300</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -2735,14 +2974,20 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +3036,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>800</v>
+      </c>
+      <c r="F54" s="3">
         <v>900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1200</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1800</v>
       </c>
       <c r="H54" s="3">
         <v>1400</v>
       </c>
       <c r="I54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K54" s="3">
         <v>1200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>100</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3140,10 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2931,8 +3192,14 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2948,11 +3215,11 @@
       <c r="G58" s="3">
         <v>900</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+      <c r="H58" s="3">
+        <v>900</v>
+      </c>
+      <c r="I58" s="3">
+        <v>900</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
@@ -2963,11 +3230,11 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -2981,108 +3248,126 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F59" s="3">
         <v>200</v>
       </c>
       <c r="G59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
       </c>
       <c r="I59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
       </c>
       <c r="M59" s="3">
+        <v>100</v>
+      </c>
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
+        <v>200</v>
+      </c>
+      <c r="P59" s="3">
         <v>1600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="E60" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F60" s="3">
         <v>1100</v>
       </c>
       <c r="G60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I60" s="3">
         <v>1200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>200</v>
       </c>
       <c r="J60" s="3">
         <v>200</v>
       </c>
       <c r="K60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
       </c>
       <c r="M60" s="3">
+        <v>100</v>
+      </c>
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
+        <v>200</v>
+      </c>
+      <c r="P60" s="3">
         <v>1600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,8 +3416,14 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3472,14 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3640,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="E66" s="3">
         <v>1000</v>
       </c>
       <c r="F66" s="3">
+        <v>900</v>
+      </c>
+      <c r="G66" s="3">
         <v>1000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I66" s="3">
         <v>1200</v>
-      </c>
-      <c r="H66" s="3">
-        <v>200</v>
-      </c>
-      <c r="I66" s="3">
-        <v>200</v>
       </c>
       <c r="J66" s="3">
         <v>200</v>
       </c>
       <c r="K66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L66" s="3">
         <v>200</v>
       </c>
       <c r="M66" s="3">
+        <v>100</v>
+      </c>
+      <c r="N66" s="3">
         <v>200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
+        <v>200</v>
+      </c>
+      <c r="P66" s="3">
         <v>1600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3942,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-3200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-3000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-2800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-1900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-1800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-1000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-400</v>
       </c>
-      <c r="R72" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
         <v>200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-600</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-400</v>
       </c>
       <c r="Q76" s="3">
         <v>-300</v>
       </c>
       <c r="R76" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+        <v>-400</v>
+      </c>
+      <c r="S76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,63 +4278,75 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3968,46 +4357,52 @@
         <v>-100</v>
       </c>
       <c r="F81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4421,10 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4070,14 +4467,20 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,22 +4753,28 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-200</v>
       </c>
       <c r="H89" s="3">
         <v>-200</v>
@@ -4353,31 +4786,37 @@
         <v>-200</v>
       </c>
       <c r="K89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M89" s="3">
         <v>-1500</v>
       </c>
-      <c r="L89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-1100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,31 +4835,33 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -4434,20 +4875,26 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4999,14 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4555,28 +5014,28 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -4590,14 +5049,20 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,8 +5301,14 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4825,49 +5316,55 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>2200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>2100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4910,53 +5407,59 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>700</v>
       </c>
-      <c r="L102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O102" s="3">
         <v>1000</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -4964,6 +5467,12 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IWBB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IWBB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>IWBB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,94 +665,102 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>102700</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -794,24 +802,30 @@
         <v>0</v>
       </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>100</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
+        <v>54100</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -819,11 +833,11 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
@@ -834,40 +848,46 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
+      <c r="P9" s="3">
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
       </c>
       <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
+      <c r="D10" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -875,11 +895,11 @@
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
@@ -890,32 +910,38 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
+      <c r="P10" s="3">
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>100</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T10" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,19 +962,21 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3">
-        <v>100</v>
-      </c>
-      <c r="F12" s="3">
-        <v>100</v>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
@@ -969,13 +997,13 @@
         <v>100</v>
       </c>
       <c r="M12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N12" s="3">
         <v>100</v>
       </c>
       <c r="O12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
@@ -989,11 +1017,17 @@
       <c r="S12" s="3">
         <v>100</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>100</v>
+      </c>
+      <c r="U12" s="3">
+        <v>100</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1082,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,31 +1144,37 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1160,8 +1206,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,16 +1231,18 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>55500</v>
       </c>
       <c r="E17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
@@ -1197,54 +1251,60 @@
         <v>200</v>
       </c>
       <c r="H17" s="3">
+        <v>200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>47200</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
@@ -1253,46 +1313,52 @@
         <v>-200</v>
       </c>
       <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-100</v>
-      </c>
       <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,13 +1379,15 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1328,17 +1396,17 @@
         <v>-100</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1355,78 +1423,90 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>49300</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="N21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,69 +1561,81 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-400</v>
+        <v>47200</v>
       </c>
       <c r="E23" s="3">
         <v>-200</v>
       </c>
       <c r="F23" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G23" s="3">
         <v>-200</v>
       </c>
       <c r="H23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-100</v>
-      </c>
       <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>15100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1593,8 +1685,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,72 +1747,84 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-400</v>
+        <v>32100</v>
       </c>
       <c r="E26" s="3">
         <v>-200</v>
       </c>
       <c r="F26" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G26" s="3">
         <v>-200</v>
       </c>
       <c r="H26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-100</v>
-      </c>
       <c r="S26" s="3">
         <v>-100</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-300</v>
+        <v>32100</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F27" s="3">
         <v>-300</v>
@@ -1723,46 +1833,52 @@
         <v>-100</v>
       </c>
       <c r="H27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-100</v>
-      </c>
       <c r="S27" s="3">
         <v>-100</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,31 +1933,37 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1873,8 +1995,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,13 +2119,19 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2000,17 +2140,17 @@
         <v>100</v>
       </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2027,13 +2167,13 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -2041,16 +2181,22 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-300</v>
+        <v>32100</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3">
         <v>-300</v>
@@ -2059,46 +2205,52 @@
         <v>-100</v>
       </c>
       <c r="H33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-100</v>
-      </c>
       <c r="S33" s="3">
         <v>-100</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,16 +2305,22 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-300</v>
+        <v>32100</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F35" s="3">
         <v>-300</v>
@@ -2171,107 +2329,119 @@
         <v>-100</v>
       </c>
       <c r="H35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-100</v>
-      </c>
       <c r="S35" s="3">
         <v>-100</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2486,72 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1000</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,32 +2606,38 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>1414400</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
@@ -2479,34 +2665,40 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2538,120 +2730,138 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>409400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
-      </c>
-      <c r="F45" s="3">
-        <v>400</v>
-      </c>
-      <c r="G45" s="3">
-        <v>400</v>
       </c>
       <c r="H45" s="3">
         <v>400</v>
       </c>
       <c r="I45" s="3">
+        <v>400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>400</v>
+      </c>
+      <c r="K45" s="3">
         <v>500</v>
-      </c>
-      <c r="J45" s="3">
-        <v>800</v>
-      </c>
-      <c r="K45" s="3">
-        <v>700</v>
       </c>
       <c r="L45" s="3">
         <v>800</v>
       </c>
       <c r="M45" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N45" s="3">
         <v>800</v>
       </c>
       <c r="O45" s="3">
+        <v>800</v>
+      </c>
+      <c r="P45" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q45" s="3">
         <v>900</v>
-      </c>
-      <c r="P45" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>1000</v>
       </c>
       <c r="R45" s="3">
         <v>1000</v>
       </c>
       <c r="S45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1849500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1400</v>
-      </c>
-      <c r="J46" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K46" s="3">
-        <v>1100</v>
       </c>
       <c r="L46" s="3">
         <v>1300</v>
       </c>
       <c r="M46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O46" s="3">
         <v>1500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>100</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,16 +2916,22 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>225800</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
@@ -2724,10 +2940,10 @@
         <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -2759,34 +2975,40 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>3696100</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2818,8 +3040,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,16 +3164,22 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>300</v>
+        <v>796400</v>
       </c>
       <c r="E52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>300</v>
@@ -2953,11 +3193,11 @@
       <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="J52" s="3">
+        <v>300</v>
+      </c>
+      <c r="K52" s="3">
+        <v>300</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
@@ -2980,14 +3220,20 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3288,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6567700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
         <v>600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1200</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1800</v>
       </c>
       <c r="J54" s="3">
         <v>1400</v>
       </c>
       <c r="K54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M54" s="3">
         <v>1200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>100</v>
       </c>
-      <c r="T54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,31 +3402,33 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+        <v>714000</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -3198,16 +3460,22 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>900</v>
-      </c>
-      <c r="E58" s="3">
-        <v>900</v>
+        <v>0</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F58" s="3">
         <v>900</v>
@@ -3221,11 +3489,11 @@
       <c r="I58" s="3">
         <v>900</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="J58" s="3">
+        <v>900</v>
+      </c>
+      <c r="K58" s="3">
+        <v>900</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
@@ -3236,11 +3504,11 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3254,120 +3522,138 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>651000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>200</v>
+      </c>
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
-      </c>
-      <c r="F59" s="3">
-        <v>200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>200</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
       </c>
       <c r="I59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
       </c>
       <c r="K59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>200</v>
       </c>
       <c r="O59" s="3">
+        <v>100</v>
+      </c>
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
+        <v>200</v>
+      </c>
+      <c r="R59" s="3">
         <v>1600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1365000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>200</v>
+      </c>
+      <c r="F60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1100</v>
       </c>
       <c r="H60" s="3">
         <v>1100</v>
       </c>
       <c r="I60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K60" s="3">
         <v>1200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>200</v>
-      </c>
-      <c r="K60" s="3">
-        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
       </c>
       <c r="M60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
       </c>
       <c r="O60" s="3">
+        <v>100</v>
+      </c>
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
+        <v>200</v>
+      </c>
+      <c r="R60" s="3">
         <v>1600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,31 +3708,37 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>887500</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3478,8 +3770,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3956,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2252500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>200</v>
+      </c>
+      <c r="F66" s="3">
         <v>1100</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F66" s="3">
-        <v>900</v>
       </c>
       <c r="G66" s="3">
         <v>1000</v>
       </c>
       <c r="H66" s="3">
+        <v>900</v>
+      </c>
+      <c r="I66" s="3">
         <v>1000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1200</v>
-      </c>
-      <c r="J66" s="3">
-        <v>200</v>
-      </c>
-      <c r="K66" s="3">
-        <v>200</v>
       </c>
       <c r="L66" s="3">
         <v>200</v>
       </c>
       <c r="M66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N66" s="3">
         <v>200</v>
       </c>
       <c r="O66" s="3">
+        <v>100</v>
+      </c>
+      <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
+        <v>200</v>
+      </c>
+      <c r="R66" s="3">
         <v>1600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4290,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3700</v>
+        <v>28500</v>
       </c>
       <c r="E72" s="3">
         <v>-3400</v>
       </c>
       <c r="F72" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="H72" s="3">
         <v>-3200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-3000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-1300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-1100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-1000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-400</v>
       </c>
-      <c r="T72" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4538,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-500</v>
+        <v>4315200</v>
       </c>
       <c r="E76" s="3">
         <v>-200</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="G76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
         <v>200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-300</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-400</v>
       </c>
       <c r="S76" s="3">
         <v>-300</v>
       </c>
       <c r="T76" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+        <v>-400</v>
+      </c>
+      <c r="U76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,77 +4662,89 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-300</v>
+        <v>32100</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F81" s="3">
         <v>-300</v>
@@ -4363,46 +4753,52 @@
         <v>-100</v>
       </c>
       <c r="H81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-100</v>
-      </c>
       <c r="S81" s="3">
         <v>-100</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,13 +4819,15 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -4473,14 +4871,20 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,28 +5187,34 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>26000</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-200</v>
       </c>
       <c r="J89" s="3">
         <v>-200</v>
@@ -4792,31 +5226,37 @@
         <v>-200</v>
       </c>
       <c r="M89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
         <v>-1500</v>
       </c>
-      <c r="N89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-1100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-100</v>
-      </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,37 +5277,39 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -4881,20 +5323,26 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,13 +5459,19 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5020,28 +5480,28 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -5055,14 +5515,20 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,69 +5793,81 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>2200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>2100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -5413,59 +5911,65 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>700</v>
       </c>
-      <c r="N102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>1000</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -5473,6 +5977,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>
